--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.63</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.21</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.39</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>天治新消费灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1688,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1751,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1767,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1783,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1799,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,247 +456,227 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4072</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2199</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1932</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+      <c r="D6" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.53</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>95.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6595</t>
+          <t>0.1536</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -801,22 +781,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>97.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -829,358 +809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>61.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8228</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1708</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010058</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘荣创一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,32 +1149,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>16.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1536</t>
+          <t>0.8228</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1529,32 +1187,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.1708</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1567,36 +1225,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>010058</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>天弘荣创一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.38</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +1441,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1661,36 +1471,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.6595</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1704,128 +1590,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.07</v>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.68</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
+++ b/数据整理/stocks/A股/上证主板/603587-地素时尚.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -846,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
